--- a/DataTest/DataTestCMS.xlsx
+++ b/DataTest/DataTestCMS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2FF06C-C090-4F04-83FA-330893A0BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666CD2A-0900-4DCD-801A-6E8284BFD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="2490" windowWidth="22905" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
     <sheet name="Coupon" sheetId="2" r:id="rId2"/>
     <sheet name="AddProductToCart" sheetId="3" r:id="rId3"/>
+    <sheet name="SearchProduct" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Case</t>
   </si>
@@ -69,16 +70,80 @@
   </si>
   <si>
     <t>AliceBlue-22-Real</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Cosy Thuy Dung UMTSHEGI</t>
+  </si>
+  <si>
+    <t>keySearchProduct</t>
+  </si>
+  <si>
+    <t>Có kết quả sản phẩm</t>
+  </si>
+  <si>
+    <t>Không có kết quả sản phẩm</t>
+  </si>
+  <si>
+    <t>Có kết quả tag</t>
+  </si>
+  <si>
+    <t>Có kết quả category</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>cosy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sản phẩm admin - có biến thể </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sản phẩm admin - không có biến thể </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sản phẩm seller - có biến thể </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sản phẩm seller - không có biến thể </t>
+  </si>
+  <si>
+    <t>Cosy Thuy Dung Update VFYJWRFN</t>
+  </si>
+  <si>
+    <t>Cosy Thuy Dung GBNXJUZQ</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Chỉ giao hàng vào giờ hành chính</t>
+  </si>
+  <si>
+    <t>Giao sớm nhất có thể</t>
+  </si>
+  <si>
+    <t>Giao ngay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,8 +169,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,27 +452,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -457,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A85984-B1CF-4E7C-AE8C-6A1E7B1E5ABD}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,4 +650,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494B4BD2-44EF-4A17-A33D-647A52D36163}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataTest/DataTestCMS.xlsx
+++ b/DataTest/DataTestCMS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VTTDung\OneDrive - HUCE\DATN_47265\DATN_Selenium_Java_ThuyDung1\DATN_Selenium_Java_ThuyDung\DataTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666CD2A-0900-4DCD-801A-6E8284BFD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="5910" windowWidth="22905" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataTest/DataTestCMS.xlsx
+++ b/DataTest/DataTestCMS.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666CD2A-0900-4DCD-801A-6E8284BFD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="5910" windowWidth="22905" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4185" windowWidth="22905" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494B4BD2-44EF-4A17-A33D-647A52D36163}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
